--- a/excel/user_info.xlsx
+++ b/excel/user_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyeongrok/git/python/python_crawler/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49068E8B-AEBD-C24A-9819-2D75192E32E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190EF0CF-B2A9-9242-A861-DA7ADCAE6901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{E3AFB137-C5C5-4C4B-AB1D-2392329536CA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>키워드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A9D891-C1C0-9840-9ACA-9EB1E0B1AC7E}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="247" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -429,6 +433,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
